--- a/cudaAnalysis.xlsx
+++ b/cudaAnalysis.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeffp\OneDrive\Documents\GitHub\CUDA_Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0CD4D24-5CBA-43FE-91CC-358B0C26CE1E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5035CCCF-CDA8-4FA9-A207-9F619A55DB4B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0BF60C09-16B8-4EB9-BB51-828109E8C620}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Block Size</t>
   </si>
@@ -41,6 +41,15 @@
   <si>
     <t>Vector Size</t>
   </si>
+  <si>
+    <t>Microseconds GPU</t>
+  </si>
+  <si>
+    <t>Microseconds CPU</t>
+  </si>
+  <si>
+    <t>Speedup</t>
+  </si>
 </sst>
 </file>
 
@@ -48,7 +57,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="167" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -87,10 +96,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -750,7 +760,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -785,10 +795,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:f>Sheet1!$D$2:$D$6</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>148175</c:v>
                 </c:pt>
@@ -799,6 +809,9 @@
                   <c:v>164840</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>364285</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1950891</c:v>
                 </c:pt>
               </c:numCache>
@@ -806,10 +819,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:f>Sheet1!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -820,6 +833,9 @@
                   <c:v>10000000</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>100000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>1000000000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2247,7 +2263,7 @@
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -2283,7 +2299,7 @@
       <xdr:rowOff>4762</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>80962</xdr:rowOff>
@@ -2611,21 +2627,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D67BE0-9DEA-43FC-88E1-FFA0471325DE}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -2633,13 +2651,19 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>3599652</v>
       </c>
@@ -2650,10 +2674,17 @@
         <v>148175</v>
       </c>
       <c r="E2" s="1">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3">
+        <f>E2/D2</f>
+        <v>8.0985321410494355E-5</v>
+      </c>
+      <c r="G2" s="1">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2824074</v>
       </c>
@@ -2663,12 +2694,19 @@
       <c r="D3" s="1">
         <v>156080</v>
       </c>
-      <c r="E3" s="2">
-        <f>E2*100</f>
+      <c r="E3" s="1">
+        <v>1397</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" ref="F3:F6" si="0">E3/D3</f>
+        <v>8.9505381855458747E-3</v>
+      </c>
+      <c r="G3" s="2">
+        <f>G2*100</f>
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2366047</v>
       </c>
@@ -2678,12 +2716,19 @@
       <c r="D4" s="1">
         <v>164840</v>
       </c>
-      <c r="E4" s="2">
-        <f t="shared" ref="E4:E5" si="0">E3*100</f>
+      <c r="E4" s="1">
+        <v>89658</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.54390924532880369</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4" si="1">G3*100</f>
         <v>10000000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>2130465</v>
       </c>
@@ -2691,30 +2736,56 @@
         <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>1950891</v>
-      </c>
-      <c r="E5" s="2">
+        <v>364285</v>
+      </c>
+      <c r="E5" s="1">
+        <v>803626</v>
+      </c>
+      <c r="F5" s="3">
         <f t="shared" si="0"/>
-        <v>1000000000</v>
+        <v>2.2060364824244751</v>
+      </c>
+      <c r="G5" s="2">
+        <v>100000000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>2084624</v>
       </c>
       <c r="B6" s="1">
         <v>16</v>
       </c>
+      <c r="D6" s="1">
+        <v>1950891</v>
+      </c>
+      <c r="E6" s="1">
+        <v>7902883</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>4.050909558760587</v>
+      </c>
+      <c r="G6" s="2">
+        <f>G4*100</f>
+        <v>1000000000</v>
+      </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1970338</v>
       </c>
       <c r="B7" s="1">
         <v>32</v>
       </c>
+      <c r="E7" s="1">
+        <v>39642738</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5000000000</v>
+      </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1971073</v>
       </c>
@@ -2722,7 +2793,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1954775</v>
       </c>
@@ -2730,7 +2801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1950891</v>
       </c>
@@ -2738,7 +2809,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1961944</v>
       </c>
